--- a/09月大象数据建模/大象DB记录.xlsx
+++ b/09月大象数据建模/大象DB记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>0925关于排期就诊 :</t>
   </si>
@@ -90,31 +90,25 @@
     <t>姑且认为是时间点+进入诊室 才行</t>
   </si>
   <si>
-    <t>检验检查管理: 组套, 组套包..</t>
-  </si>
-  <si>
-    <t>门店可以关联组套 ,并给组套设置价格</t>
-  </si>
-  <si>
-    <t>门店可以将组套组合成组套包 ,并给其中的每个组套设置价格? 此价格不同于上一行</t>
-  </si>
-  <si>
-    <t>医生端&gt;移动&gt; 我的处方模板 中的 药品有个查看按钮 ,原型中却不能点 ,详细? 模板中仅仅设置药品 ,而不设计到剂量 ,用法用量,医嘱等 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审方签名照片哪来的? 原型中未见上传的地方? </t>
+    <t xml:space="preserve">医生端&gt;移动&gt; 我的处方模板 中的 药品 </t>
+  </si>
+  <si>
+    <t>主要为医生操作选择,填写</t>
+  </si>
+  <si>
+    <t>审核章, 各种章在哪里维护</t>
   </si>
   <si>
     <t>处方审核未通过, 医生点击重开处方.. 是否可以一直点击重开处方 ,不通过的处方如何处理 /?</t>
   </si>
   <si>
-    <t>医生开处方 ,处方中的药品的基础信息是否可以修改 ,例如 剂量,用法等....</t>
-  </si>
-  <si>
-    <t>0927上午</t>
-  </si>
-  <si>
-    <t>病例模板???</t>
+    <t>点击重开处方之后, 就得处方不允许再次点击重开处方</t>
+  </si>
+  <si>
+    <t>0927d</t>
+  </si>
+  <si>
+    <t>病例模板</t>
   </si>
   <si>
     <t>管理PC端: 病例模板原型中的科室和个人? 并未见到个人维护的原型</t>
@@ -126,21 +120,15 @@
     <t xml:space="preserve">病例中的体格检查6项是固定的么 ,诊断3项是固定的码 ,处方中也有诊断3项, 数目固定? </t>
   </si>
   <si>
-    <t>感谢金和医生有关系? 原型中并未有</t>
-  </si>
-  <si>
-    <t>医生A 30 ,医生B20 在哪里配置的</t>
-  </si>
-  <si>
-    <t>服务配置中 ,服务icon哪里配置</t>
-  </si>
-  <si>
     <t>用户预约 ,快速选择时间是小时为单位拆分,视频是医生排期时间拆分,  医生排班确实15分钟 ,数据库设计修改</t>
   </si>
   <si>
     <t>视频预约如果选择门店的话 ,表明用户是去门店用门店的机器进行视频, 那么 ,门店有几个视频机器? 门店机器占用配置 ?</t>
   </si>
   <si>
+    <t>视频预约 ,门店列表为 门店有电脑的 门店电脑维护</t>
+  </si>
+  <si>
     <t xml:space="preserve">优惠券激活流程&gt; </t>
   </si>
   <si>
@@ -150,13 +138,7 @@
     <t>优惠券还有使用次数(优惠券有3中, 折扣,满减,核销)</t>
   </si>
   <si>
-    <t>大象健康日历, 图片点击跳转还是图片 ?</t>
-  </si>
-  <si>
-    <t>视频预约 ,门店列表为 门店有电脑的 门店电脑维护</t>
-  </si>
-  <si>
-    <t>视频问诊3个服务没有权重</t>
+    <t>大象健康日历, 图片点击跳转还是图片 ? 封面图和内容图 ???</t>
   </si>
   <si>
     <t>UI图与原型 一上午</t>
@@ -165,37 +147,40 @@
     <t>0927下午数据库</t>
   </si>
   <si>
-    <t>数据库医嘱修改为医生建议</t>
-  </si>
-  <si>
     <t>医生PC端, 图文资讯&gt;电子病例&gt; 9、保存：点击之后保存电子病历。病历保存后，诊断中的内容自动带入电子处方和检查检验页面中的诊断，</t>
   </si>
   <si>
+    <t>强一致性校验</t>
+  </si>
+  <si>
     <t>问题来了, 两个页先后顺序与覆盖问题 ,同上 , 就诊中开出的检查检验项也有此疑问</t>
   </si>
   <si>
     <t>医生PC端 ,医生可以将开出的检查检验项保存为模板 (图文咨询),问题来了 ,模板长什么样子</t>
   </si>
   <si>
-    <t>添加动态档期</t>
-  </si>
-  <si>
-    <t>背景：门店在添加门店中会设置每日检查检验最大预约人数，但是如果某个日期想设置例外的最大预约人数则通过动态档期设置，如果添加以后，目标日期的检查检验预约人数以动态档期为最高优先级，目标日期过后恢复为门店设置的每日参数。</t>
+    <t>在页面下方</t>
   </si>
   <si>
     <t>门店-回访 金额有2个是什么意思</t>
   </si>
   <si>
-    <t>门店-组套-添加组套中 ,组套项目原型图中的 &gt; 有何意义 ,如右图</t>
-  </si>
-  <si>
-    <t>一级审核后, 是否还能添加项目? 二级同理 ?</t>
-  </si>
-  <si>
-    <t>信息配置: 检查审核配置业务不清晰, 编辑的时候, 不明其意</t>
-  </si>
-  <si>
-    <t>检查活动审核无法跳转</t>
+    <t>一级审核后,二级审核人还未操作时, 门店人员是否还能添加组套项目? 二级同理 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">审核人是如何进入系统的? 审核人是后台管理员还是普通医生? </t>
+  </si>
+  <si>
+    <t>0928关于门店检查活动</t>
+  </si>
+  <si>
+    <t>门店活动设置了活动价格 ,是否会影响组套在其他地方的价格? 例如专项检查</t>
+  </si>
+  <si>
+    <t>专项检查包价格是否会随着基础价格变动而变动</t>
+  </si>
+  <si>
+    <t>价格问题</t>
   </si>
 </sst>
 </file>
@@ -208,41 +193,12 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1E1E1E"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,34 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -297,13 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -328,14 +249,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -352,24 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,187 +355,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -578,41 +549,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,8 +576,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,8 +600,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +613,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,145 +666,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -900,16 +865,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>144145</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>577215</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>623570</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -926,8 +891,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10388600" y="12450445"/>
-          <a:ext cx="7333615" cy="4022725"/>
+          <a:off x="13863955" y="12339955"/>
+          <a:ext cx="7333615" cy="3851275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1230,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L98"/>
+  <dimension ref="A2:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1380,74 +1345,86 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
       <c r="B34" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="G34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
       <c r="B38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="L38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="42" ht="12" customHeight="1" spans="1:1">
+      <c r="A42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="43" ht="12" customHeight="1"/>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
       <c r="B44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" ht="12" customHeight="1" spans="1:1">
-      <c r="A46" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
       <c r="B49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1456,114 +1433,101 @@
         <v>37</v>
       </c>
     </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
       <c r="B61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="2:2">
       <c r="B63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+      <c r="O69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" hidden="1" spans="2:2">
-      <c r="B75" t="s">
+      <c r="L72" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
+        <v>52</v>
+      </c>
+      <c r="J83" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" spans="2:2">
-      <c r="B88" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" spans="2:2">
-      <c r="B89" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/09月大象数据建模/大象DB记录.xlsx
+++ b/09月大象数据建模/大象DB记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>0925关于排期就诊 :</t>
   </si>
@@ -181,6 +181,24 @@
   </si>
   <si>
     <t>价格问题</t>
+  </si>
+  <si>
+    <t>实际上 ,一个组套可以在多个科室中, 即多个科室都会有着一个检查项</t>
+  </si>
+  <si>
+    <t>价格对应的是组套 ,明细并没有价格</t>
+  </si>
+  <si>
+    <t>门店提交组套包后,审核部分待定</t>
+  </si>
+  <si>
+    <t>2018年9月28日 19:47:12晚上</t>
+  </si>
+  <si>
+    <t>门店档期配置&gt;后台pc端: 动态档期和休息日是否可以重合</t>
+  </si>
+  <si>
+    <t>优惠券: 优惠券发放的时候 ,门店问题</t>
   </si>
 </sst>
 </file>
@@ -1195,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O84"/>
+  <dimension ref="A2:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,6 +1546,39 @@
     <row r="84" spans="2:2">
       <c r="B84" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/09月大象数据建模/大象DB记录.xlsx
+++ b/09月大象数据建模/大象DB记录.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="10950"/>
+    <workbookView windowWidth="23445" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="1-5" sheetId="1" r:id="rId1"/>
+    <sheet name="6,7" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>0925关于排期就诊 :</t>
   </si>
@@ -75,130 +75,202 @@
     <t>患者进入诊室 ,便产生就诊记录 ,只是记录状态为待就诊状态 ,待医生在PC端点击发起问诊时 ,才进入就诊中状态 ,就诊中状态 , 医生有可能会开处方,写病历, 开出检查检验项等操作 ,医生点击结束问诊按钮 ,结束流程</t>
   </si>
   <si>
+    <t>只要预约了 ,经过某个时间点 ,就能在 用户移动端&gt;历史就诊中查到</t>
+  </si>
+  <si>
+    <t>医生PC端 ,并未要求患者进入诊室, 是否只要患者在线在线且时间满足"5分钟前后",就可以发起问诊</t>
+  </si>
+  <si>
+    <t>姑且认为是时间点+进入诊室 才行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医生端&gt;移动&gt; 我的处方模板 中的 药品 </t>
+  </si>
+  <si>
+    <t>主要为医生操作选择,填写</t>
+  </si>
+  <si>
+    <t>审核章, 各种章在哪里维护</t>
+  </si>
+  <si>
+    <t>处方审核未通过, 医生点击重开处方.. 是否可以一直点击重开处方 ,不通过的处方如何处理 /?</t>
+  </si>
+  <si>
+    <t>点击重开处方之后, 就得处方不允许再次点击重开处方</t>
+  </si>
+  <si>
+    <t>0927d</t>
+  </si>
+  <si>
+    <t>病例模板</t>
+  </si>
+  <si>
+    <t>管理PC端: 病例模板原型中的科室和个人? 并未见到个人维护的原型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原型中仅仅有主诉,病史可以编辑, 不同病人的主诉和病史能一样 ? 模板有使用价值 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">病例中的体格检查6项是固定的么 ,诊断3项是固定的码 ,处方中也有诊断3项, 数目固定? </t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
+    <t>用户预约 ,快速选择时间是小时为单位拆分,视频是医生排期时间拆分,  医生排班确实15分钟 ,数据库设计修改</t>
+  </si>
+  <si>
+    <t>视频预约如果选择门店的话 ,表明用户是去门店用门店的机器进行视频, 那么 ,门店有几个视频机器? 门店机器占用配置 ?</t>
+  </si>
+  <si>
+    <t>视频预约 ,门店列表为 门店有电脑的 门店电脑维护</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠券激活流程&gt; </t>
+  </si>
+  <si>
+    <t>一个券码可能有多个优惠券 ,参见用户端优惠券激活</t>
+  </si>
+  <si>
+    <t>优惠券还有使用次数(优惠券有3中, 折扣,满减,核销)</t>
+  </si>
+  <si>
+    <t>UI图与原型 一上午</t>
+  </si>
+  <si>
+    <t>0927下午数据库</t>
+  </si>
+  <si>
+    <t>医生PC端, 图文资讯&gt;电子病例&gt; 9、保存：点击之后保存电子病历。病历保存后，诊断中的内容自动带入电子处方和检查检验页面中的诊断，</t>
+  </si>
+  <si>
+    <t>强一致性校验</t>
+  </si>
+  <si>
+    <t>问题来了, 两个页先后顺序与覆盖问题 ,同上 , 就诊中开出的检查检验项也有此疑问</t>
+  </si>
+  <si>
+    <t>医生PC端 ,医生可以将开出的检查检验项保存为模板 (图文咨询),问题来了 ,模板长什么样子</t>
+  </si>
+  <si>
+    <t>在页面下方,ok</t>
+  </si>
+  <si>
+    <t>门店-回访 金额有2个是什么意思</t>
+  </si>
+  <si>
+    <t>参见原型page input placeholder</t>
+  </si>
+  <si>
+    <t>0928关于门店检查活动</t>
+  </si>
+  <si>
+    <t>门店活动设置了活动价格 ,是否会影响组套在其他地方的价格? 例如专项检查</t>
+  </si>
+  <si>
+    <t>专项检查包价格是否会随着基础价格变动而变动</t>
+  </si>
+  <si>
+    <t>价格问题</t>
+  </si>
+  <si>
+    <t>实际上 ,一个组套可以在多个科室中, 即多个科室都会有着一个检查项</t>
+  </si>
+  <si>
+    <t>价格对应的是组套 ,明细并没有价格</t>
+  </si>
+  <si>
+    <t>门店提交组套包后,审核部分待定</t>
+  </si>
+  <si>
+    <t>2018年9月28日 19:47:12晚上</t>
+  </si>
+  <si>
+    <t>门店档期配置&gt;后台pc端: 动态档期和休息日是否可以重合</t>
+  </si>
+  <si>
+    <t>优惠券: 优惠券发放的时候 ,门店问题</t>
+  </si>
+  <si>
+    <t>大象健康日历, 图片点击跳转还是图片 ? 封面图和内容图 ???</t>
+  </si>
+  <si>
+    <t>一级审核后,二级审核人还未操作时, 门店人员是否还能添加组套项目? 二级同理 ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">审核人是如何进入系统的? 审核人是后台管理员还是普通医生? </t>
+  </si>
+  <si>
     <t>患者进入诊室, 医生点击了发起问诊 ,但是患者无应答?如何处理</t>
   </si>
   <si>
-    <t>只要预约了 ,经过某个时间点 ,就能在 用户移动端&gt;历史就诊中查到</t>
-  </si>
-  <si>
-    <t>医生PC端 ,并未要求患者进入诊室, 是否只要患者在线在线且时间满足"5分钟前后",就可以发起问诊</t>
-  </si>
-  <si>
-    <t>姑且认为是时间点+进入诊室 才行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医生端&gt;移动&gt; 我的处方模板 中的 药品 </t>
-  </si>
-  <si>
-    <t>主要为医生操作选择,填写</t>
-  </si>
-  <si>
-    <t>审核章, 各种章在哪里维护</t>
-  </si>
-  <si>
-    <t>处方审核未通过, 医生点击重开处方.. 是否可以一直点击重开处方 ,不通过的处方如何处理 /?</t>
-  </si>
-  <si>
-    <t>点击重开处方之后, 就得处方不允许再次点击重开处方</t>
-  </si>
-  <si>
-    <t>0927d</t>
-  </si>
-  <si>
-    <t>病例模板</t>
-  </si>
-  <si>
-    <t>管理PC端: 病例模板原型中的科室和个人? 并未见到个人维护的原型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">原型中仅仅有主诉,病史可以编辑, 不同病人的主诉和病史能一样 ? 模板有使用价值 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">病例中的体格检查6项是固定的么 ,诊断3项是固定的码 ,处方中也有诊断3项, 数目固定? </t>
-  </si>
-  <si>
-    <t>用户预约 ,快速选择时间是小时为单位拆分,视频是医生排期时间拆分,  医生排班确实15分钟 ,数据库设计修改</t>
-  </si>
-  <si>
-    <t>视频预约如果选择门店的话 ,表明用户是去门店用门店的机器进行视频, 那么 ,门店有几个视频机器? 门店机器占用配置 ?</t>
-  </si>
-  <si>
-    <t>视频预约 ,门店列表为 门店有电脑的 门店电脑维护</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优惠券激活流程&gt; </t>
-  </si>
-  <si>
-    <t>一个券码可能有多个优惠券 ,参见用户端优惠券激活</t>
-  </si>
-  <si>
-    <t>优惠券还有使用次数(优惠券有3中, 折扣,满减,核销)</t>
-  </si>
-  <si>
-    <t>大象健康日历, 图片点击跳转还是图片 ? 封面图和内容图 ???</t>
-  </si>
-  <si>
-    <t>UI图与原型 一上午</t>
-  </si>
-  <si>
-    <t>0927下午数据库</t>
-  </si>
-  <si>
-    <t>医生PC端, 图文资讯&gt;电子病例&gt; 9、保存：点击之后保存电子病历。病历保存后，诊断中的内容自动带入电子处方和检查检验页面中的诊断，</t>
-  </si>
-  <si>
-    <t>强一致性校验</t>
-  </si>
-  <si>
-    <t>问题来了, 两个页先后顺序与覆盖问题 ,同上 , 就诊中开出的检查检验项也有此疑问</t>
-  </si>
-  <si>
-    <t>医生PC端 ,医生可以将开出的检查检验项保存为模板 (图文咨询),问题来了 ,模板长什么样子</t>
-  </si>
-  <si>
-    <t>在页面下方</t>
-  </si>
-  <si>
-    <t>门店-回访 金额有2个是什么意思</t>
-  </si>
-  <si>
-    <t>一级审核后,二级审核人还未操作时, 门店人员是否还能添加组套项目? 二级同理 ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审核人是如何进入系统的? 审核人是后台管理员还是普通医生? </t>
-  </si>
-  <si>
-    <t>0928关于门店检查活动</t>
-  </si>
-  <si>
-    <t>门店活动设置了活动价格 ,是否会影响组套在其他地方的价格? 例如专项检查</t>
-  </si>
-  <si>
-    <t>专项检查包价格是否会随着基础价格变动而变动</t>
-  </si>
-  <si>
-    <t>价格问题</t>
-  </si>
-  <si>
-    <t>实际上 ,一个组套可以在多个科室中, 即多个科室都会有着一个检查项</t>
-  </si>
-  <si>
-    <t>价格对应的是组套 ,明细并没有价格</t>
-  </si>
-  <si>
-    <t>门店提交组套包后,审核部分待定</t>
-  </si>
-  <si>
-    <t>2018年9月28日 19:47:12晚上</t>
-  </si>
-  <si>
-    <t>门店档期配置&gt;后台pc端: 动态档期和休息日是否可以重合</t>
-  </si>
-  <si>
-    <t>优惠券: 优惠券发放的时候 ,门店问题</t>
+    <t>2018年9月29日 09:35:25 上午</t>
+  </si>
+  <si>
+    <t>上午任务</t>
+  </si>
+  <si>
+    <t>1.昨天晚上关于优惠券的数据库字段和类型完善(10%)</t>
+  </si>
+  <si>
+    <t>13:47:23 end</t>
+  </si>
+  <si>
+    <t>2.昨天关于门店和检查的完善(90%)</t>
+  </si>
+  <si>
+    <t>13:47:28 end</t>
+  </si>
+  <si>
+    <t>未完成事务:</t>
+  </si>
+  <si>
+    <t>图文咨询分类下的: 开药,开检查,在线咨询</t>
+  </si>
+  <si>
+    <t>16:44:39 end</t>
+  </si>
+  <si>
+    <t>大象健康日历,在教育, 公告等</t>
+  </si>
+  <si>
+    <t>16:44:31 end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 推广管理</t>
+  </si>
+  <si>
+    <t>17:03:56 end</t>
+  </si>
+  <si>
+    <t>消息推送</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>聊天与视频记录相关存储设计</t>
+  </si>
+  <si>
+    <t>订单,药品</t>
+  </si>
+  <si>
+    <t>组套包和专项检查的的一二级审核</t>
+  </si>
+  <si>
+    <t>2018年9月29日 13:47:47 下午</t>
+  </si>
+  <si>
+    <t>用户移动端&gt; 专项检查预约中, 有提到患者选择两个时间段并支付后 ,由门店人员为用户分配具体时间 原型见:后台PC端&gt;排期就诊&gt;检查预约信息</t>
+  </si>
+  <si>
+    <t>图文资讯&gt; 需参见用户移动端和 后台PC端&gt; 排期就诊 &gt;图文资讯信息</t>
+  </si>
+  <si>
+    <t>组套 gp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关联表 _r </t>
   </si>
 </sst>
 </file>
@@ -206,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -217,6 +289,113 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,69 +414,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,53 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,55 +445,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,127 +601,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +636,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,15 +687,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,41 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +716,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +756,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,10 +1285,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:O93"/>
+  <dimension ref="A2:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1336,20 +1408,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1357,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1368,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1379,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1387,15 +1451,15 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="12" customHeight="1" spans="1:1">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="12" customHeight="1"/>
@@ -1404,17 +1468,17 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1422,61 +1486,56 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="2:2">
       <c r="B63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -1484,15 +1543,15 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -1500,36 +1559,26 @@
         <v>1</v>
       </c>
       <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>46</v>
       </c>
-      <c r="L72" t="s">
+      <c r="G74" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -1537,48 +1586,77 @@
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>32</v>
+      </c>
+      <c r="B95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1592,14 +1670,141 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/09月大象数据建模/大象DB记录.xlsx
+++ b/09月大象数据建模/大象DB记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>0925关于排期就诊 :</t>
   </si>
@@ -246,15 +246,36 @@
     <t>消息推送</t>
   </si>
   <si>
+    <t>没文档</t>
+  </si>
+  <si>
+    <t>数据模型待确认模块:</t>
+  </si>
+  <si>
     <t>文件</t>
   </si>
   <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>1消息通知 (页面无描述 ,无文档)</t>
+  </si>
+  <si>
+    <t>2订单与药品</t>
+  </si>
+  <si>
     <t>聊天与视频记录相关存储设计</t>
   </si>
   <si>
+    <t>3组套包和专项检查的一二级审核</t>
+  </si>
+  <si>
     <t>订单,药品</t>
   </si>
   <si>
+    <t>4聊天与视频记录相关设计</t>
+  </si>
+  <si>
     <t>组套包和专项检查的的一二级审核</t>
   </si>
   <si>
@@ -271,6 +292,21 @@
   </si>
   <si>
     <t xml:space="preserve">关联表 _r </t>
+  </si>
+  <si>
+    <t>2018年9月29日 21:48:55晚上</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">处方的作废是如何操作的 ? </t>
+  </si>
+  <si>
+    <t>医生开检查 ,门店推送原型不明确</t>
+  </si>
+  <si>
+    <t>消息配置,没文档 呀!!!!</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1706,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I30"/>
+  <dimension ref="A2:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1742,33 +1778,56 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="3:3">
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14">
       <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14">
+      <c r="N17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:3">
@@ -1776,32 +1835,58 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
